--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1606677.738381477</v>
+        <v>1604425.658670269</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>138.8437204680922</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646375</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>53.54735467376801</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>217.5090754697035</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105.4771979831548</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>111.6770057037263</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>58.28185552386351</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>244.666334096466</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>370.0212081709818</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>112.0789181391344</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.238372828422</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419834048</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>-1.885306725550132e-12</v>
       </c>
       <c r="G13" t="n">
-        <v>55.52079624059554</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890447</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229331</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.55707494718396</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.7076464771371</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="20">
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179368</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428122</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>93.62264337260697</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>41.74133133758986</v>
+        <v>120.7871326503952</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>41.55695577161238</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.6028762599969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4431,28 +4431,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218342</v>
@@ -4516,22 +4516,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V4" t="n">
-        <v>701.1808689801002</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W4" t="n">
-        <v>701.1808689801002</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="X4" t="n">
-        <v>701.1808689801002</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.1808689801002</v>
+        <v>120.6003534763935</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4571,7 +4571,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2643.001872527934</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2290.233217257819</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875186</v>
+        <v>1916.76745899674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899374</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>862.0164446829692</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>862.0164446829692</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>862.0164446829692</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>862.0164446829692</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>862.0164446829692</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W7" t="n">
-        <v>862.0164446829692</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.273285499502</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.310768559091</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1237.04506995234</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>851.2568173540958</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>440.2709125644882</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2741.012457539436</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y8" t="n">
-        <v>2350.873125563624</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>114.2598873597751</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327559</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>594.817955904849</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925132</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101201</v>
+        <v>93.81666304796998</v>
       </c>
       <c r="F13" t="n">
-        <v>149.8982754122098</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806526</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036629956</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.550723916713</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888061</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888061</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888061</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2402.966038179065</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2220.111203833969</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2000.50973885691</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1711.434512201108</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.750023995221</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1167.33285395826</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>939.3433030602431</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>718.550723916713</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,22 +5595,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121639</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270438</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,25 +6236,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876715</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258109</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614414</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179113</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138429</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703128</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844822869</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>110.0033420516733</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.81817176293773</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347519</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194264</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>123.7828069546783</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>125.505489761038</v>
+        <v>46.4596884482326</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.4693302300322</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.22910392194042</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>903109.8587843145</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843145</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843145</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843145</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="I2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405254</v>
@@ -26454,7 +26454,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.279981254</v>
+        <v>-996598.2799812539</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463382</v>
+        <v>332146.4657463381</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463384</v>
+        <v>332146.4657463385</v>
       </c>
       <c r="E6" t="n">
-        <v>82063.71419535013</v>
+        <v>82028.97626991368</v>
       </c>
       <c r="F6" t="n">
-        <v>407476.1760027045</v>
+        <v>407441.4380772691</v>
       </c>
       <c r="G6" t="n">
-        <v>407476.1760027048</v>
+        <v>407441.4380772693</v>
       </c>
       <c r="H6" t="n">
-        <v>407476.1760027049</v>
+        <v>407441.4380772691</v>
       </c>
       <c r="I6" t="n">
-        <v>407476.1760027049</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="J6" t="n">
-        <v>189944.9736054275</v>
+        <v>189910.2356799918</v>
       </c>
       <c r="K6" t="n">
-        <v>407476.1760027048</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="L6" t="n">
-        <v>407476.1760027048</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="M6" t="n">
-        <v>322421.148067193</v>
+        <v>322386.4101417573</v>
       </c>
       <c r="N6" t="n">
-        <v>407476.1760027048</v>
+        <v>407441.4380772691</v>
       </c>
       <c r="O6" t="n">
-        <v>407476.1760027049</v>
+        <v>407441.4380772691</v>
       </c>
       <c r="P6" t="n">
-        <v>407476.1760027048</v>
+        <v>407441.4380772692</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>95.06811834444434</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27588,16 +27588,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>34.62856785412447</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>277.2566436803258</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>216.0752527664086</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>30.65029714618382</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>7.471309227361985</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>40.90051748247168</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28062,10 +28062,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.34628052367276</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.220737668510449e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-6.060798170039696e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
     </row>
     <row r="20">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-4.63134280015893e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>145.7021085929657</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>18.86448192629905</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121332</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,16 +35963,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010443</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060476</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899088</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
